--- a/src/test/resources/case/testCase04.xlsx
+++ b/src/test/resources/case/testCase04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\java-auto\src\test\resources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765F7D0-C4AD-4701-B3D5-AC1C9827FFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A940908C-54CD-4E3A-AA1A-85A1380A5F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例详情" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -884,9 +884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"key":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"key":"zs","value":"abc"}]</t>
-  </si>
-  <si>
     <t>ExceptedInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,10 +1380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"jsonStr":"$data.id","paramName":"member_id"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mobile_phone":"${mobile_phone}","pwd":"15678"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1396,6 +1389,30 @@
   </si>
   <si>
     <t>[{"jsonStr":"$.code","expected":0},{"jsonStr":"$.msg","expected":"OK"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$data.id","paramName":"member_id"},{"jsonStr":"$data.token_info.token","paramName":"token"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"key":"X-Lemonban-Media-Type","value":"lemonban.v3"},{"key":"Authorization","value":"Bearer ${token}"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"key":"X-Lemonban-Media-Type","value":"lemonban.v3"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1403,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,21 +1477,69 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1486,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1505,14 +1570,50 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1821,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1831,293 +1932,314 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="61.21875" style="1" customWidth="1"/>
     <col min="4" max="5" width="39.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2265,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2159,8 +2281,11 @@
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2174,10 +2299,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2191,10 +2319,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2208,7 +2339,10 @@
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2238,13 +2372,13 @@
     <col min="4" max="4" width="63.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="53.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2253,16 +2387,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>60</v>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
@@ -2273,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
@@ -2290,13 +2424,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
@@ -2307,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
@@ -2321,16 +2455,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2338,16 +2472,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/testCase04.xlsx
+++ b/src/test/resources/case/testCase04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\java-auto\src\test\resources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A940908C-54CD-4E3A-AA1A-85A1380A5F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AF769-1345-4458-8E5C-A7A379E7AB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例详情" sheetId="1" r:id="rId1"/>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
